--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,34 +38,28 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">April</t>
+    <t xml:space="preserve">Maj</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tillverkning</t>
+  </si>
+  <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">Byggverksamhet</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handel; reparation av motorfordon och motorcyklar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verksamhet inom juridik, ekonomi, vetenskap och teknik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utbildning</t>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kultur, nöje och fritid</t>
   </si>
 </sst>
 </file>
@@ -437,10 +431,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +454,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -483,33 +477,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,28 +38,16 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Maj</t>
+    <t xml:space="preserve">Juli</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tillverkning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byggverksamhet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kultur, nöje och fritid</t>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handel; reparation av motorfordon och motorcyklar</t>
   </si>
 </sst>
 </file>
@@ -431,56 +419,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,16 +38,22 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Juli</t>
+    <t xml:space="preserve">Augusti</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handel; reparation av motorfordon och motorcyklar</t>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tillverkning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byggverksamhet</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,33 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Augusti</t>
+    <t xml:space="preserve">September</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t xml:space="preserve">Byggverksamhet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utbildning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vård och omsorg; sociala tjänster</t>
   </si>
 </sst>
 </file>
@@ -425,10 +437,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>82</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +460,56 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G3" t="n">
-        <v>82</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>151</v>
+      </c>
+      <c r="G4" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38</v>
+      </c>
+      <c r="G5" t="n">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">September</t>
+    <t xml:space="preserve">Oktober</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
@@ -56,16 +56,22 @@
     <t xml:space="preserve">Byggverksamhet</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utbildning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vård och omsorg; sociala tjänster</t>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handel; reparation av motorfordon och motorcyklar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotell- och restaurangverksamhet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uthyrning, fastighetsservice, resetjänster och andra stödtjänster</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>302</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +466,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>302</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +489,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>302</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -506,10 +512,33 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>302</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Oktober</t>
+    <t xml:space="preserve">November</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
@@ -62,16 +62,10 @@
     <t xml:space="preserve">Handel; reparation av motorfordon och motorcyklar</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotell- och restaurangverksamhet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uthyrning, fastighetsservice, resetjänster och andra stödtjänster</t>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informations- och kommunikationsverksamhet</t>
   </si>
 </sst>
 </file>
@@ -443,10 +437,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +460,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -489,10 +483,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -512,33 +506,10 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,34 +38,22 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">November</t>
+    <t xml:space="preserve">December</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordbruk, skogsbruk och fiske</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Tillverkning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byggverksamhet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handel; reparation av motorfordon och motorcyklar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informations- och kommunikationsverksamhet</t>
   </si>
 </sst>
 </file>
@@ -437,10 +425,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -460,56 +448,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,22 +38,40 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">December</t>
+    <t xml:space="preserve">Januari</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordbruk, skogsbruk och fiske</t>
-  </si>
-  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Tillverkning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byggverksamhet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handel; reparation av motorfordon och motorcyklar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utbildning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vård och omsorg; sociala tjänster</t>
   </si>
 </sst>
 </file>
@@ -425,10 +443,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +466,79 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Januari</t>
+    <t xml:space="preserve">Februari</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">Handel; reparation av motorfordon och motorcyklar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utbildning</t>
   </si>
   <si>
     <t xml:space="preserve">Q</t>
@@ -443,10 +437,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +460,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -489,10 +483,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -512,33 +506,10 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Data/varsel_bransch_manad.xlsx
+++ b/Data/varsel_bransch_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Februari</t>
+    <t xml:space="preserve">Mars</t>
   </si>
   <si>
     <t xml:space="preserve">Dalarnas län</t>
@@ -56,16 +56,10 @@
     <t xml:space="preserve">Byggverksamhet</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handel; reparation av motorfordon och motorcyklar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vård och omsorg; sociala tjänster</t>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utbildning</t>
   </si>
 </sst>
 </file>
@@ -437,10 +431,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +454,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -483,33 +477,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
